--- a/public/files/Donations.xlsx
+++ b/public/files/Donations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>article_code</t>
   </si>
@@ -130,21 +130,9 @@
     <t>comments</t>
   </si>
   <si>
-    <t>SCTDDRTV1--</t>
-  </si>
-  <si>
-    <t>(drainage, thoracic), VALVE NON RETURN, suction &amp; pressure</t>
-  </si>
-  <si>
     <t>eur</t>
   </si>
   <si>
-    <t>121214AH</t>
-  </si>
-  <si>
-    <t>31/01/2020</t>
-  </si>
-  <si>
     <t>KE150_Mathare</t>
   </si>
   <si>
@@ -167,13 +155,40 @@
   </si>
   <si>
     <t>31/05/2020</t>
+  </si>
+  <si>
+    <t>Monitor Dell E1910Hc</t>
+  </si>
+  <si>
+    <t>Kes</t>
+  </si>
+  <si>
+    <t>Serial Number CN-0R735N-64180-95V-0GJS</t>
+  </si>
+  <si>
+    <t>Monitor Dell E178FPc</t>
+  </si>
+  <si>
+    <t>Serial Number CN-0CN086-64180-777-1XXS</t>
+  </si>
+  <si>
+    <t>Monitor HP Compaq LE1711</t>
+  </si>
+  <si>
+    <t>Serial Number 3CQ0055V1S</t>
+  </si>
+  <si>
+    <t>Monitor HP LE1701</t>
+  </si>
+  <si>
+    <t>Serial Number 3CQ92541RK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +209,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -209,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -217,13 +238,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,114 +588,174 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>64</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>112</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1504079</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>112</v>
-      </c>
-      <c r="F4">
-        <v>1504079</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/Donations.xlsx
+++ b/public/files/Donations.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,14 +41,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Article code</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,14 +65,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Description in English</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 In Kenyan Shillings</t>
@@ -101,37 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
-  <si>
-    <t>article_code</t>
-  </si>
-  <si>
-    <t>desc_eng</t>
-  </si>
-  <si>
-    <t>purchase_price</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>expiry_date</t>
-  </si>
-  <si>
-    <t>stock_owner</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>eur</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>KE150_Mathare</t>
   </si>
@@ -160,9 +130,6 @@
     <t>Monitor Dell E1910Hc</t>
   </si>
   <si>
-    <t>Kes</t>
-  </si>
-  <si>
     <t>Serial Number CN-0R735N-64180-95V-0GJS</t>
   </si>
   <si>
@@ -182,13 +149,163 @@
   </si>
   <si>
     <t>Serial Number 3CQ92541RK</t>
+  </si>
+  <si>
+    <t>Article_code</t>
+  </si>
+  <si>
+    <t>Desc_Eng</t>
+  </si>
+  <si>
+    <t>Purchase_price</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Expiry_date</t>
+  </si>
+  <si>
+    <t>Stock_owner</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>DDGTZYN1035</t>
+  </si>
+  <si>
+    <t>( ON CALL ) GLUCOMETER STRIPS, 1 STRIP</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>MSFBN/001930</t>
+  </si>
+  <si>
+    <t>DINJEPIN1AV</t>
+  </si>
+  <si>
+    <t>EPINEPHRINE (adrenaline) tartrate,eq.1 mg/ml base,1ml amp IV</t>
+  </si>
+  <si>
+    <t>MSFBN/000197</t>
+  </si>
+  <si>
+    <t>DORAGLYT5T-</t>
+  </si>
+  <si>
+    <t>GLYCERYL TRINITRATE, 0.5 mg, sublingual tab.</t>
+  </si>
+  <si>
+    <t>MSFBN/000409</t>
+  </si>
+  <si>
+    <t>DVACIMTE2S-</t>
+  </si>
+  <si>
+    <t>IMMUNOGLOBULIN HUMAN ANTITETANUS, 250 IU/ml, syr.</t>
+  </si>
+  <si>
+    <t>MSFBN/000540</t>
+  </si>
+  <si>
+    <t>SSDTBLOC1--</t>
+  </si>
+  <si>
+    <t>BEDSIDE CONTROL CARD, ABO compatibility (Serafol)</t>
+  </si>
+  <si>
+    <t>MSFBN/001697</t>
+  </si>
+  <si>
+    <t>SASTAPWDETH25</t>
+  </si>
+  <si>
+    <t>ETHAMBUTOL dihydrochloride, powder, 25 g [Sigma-E4630]</t>
+  </si>
+  <si>
+    <t>MSFBN/000842</t>
+  </si>
+  <si>
+    <t>SASTAPWDSTR25</t>
+  </si>
+  <si>
+    <t>STREPTOMYCIN, powder, 25 g [Sigma-D5155-25G]</t>
+  </si>
+  <si>
+    <t>MSFBN/000843</t>
+  </si>
+  <si>
+    <t>SLASNIBE25-</t>
+  </si>
+  <si>
+    <t>4-NITROBENZOIC ACID, 250 g</t>
+  </si>
+  <si>
+    <t>MSFBN/001673</t>
+  </si>
+  <si>
+    <t>SLASSTCR1B-</t>
+  </si>
+  <si>
+    <t>STC 2,3-Diphenyl-5-Thienyl-(2)-Tetrazolium Chloride, pwd 1g</t>
+  </si>
+  <si>
+    <t>MSFBN/001680</t>
+  </si>
+  <si>
+    <t>EDIMULSA001</t>
+  </si>
+  <si>
+    <t>(ultrasound device) LINEAR PROBE PROTECTIVE,non sterile,s.u.</t>
+  </si>
+  <si>
+    <t>MSFBN/000553</t>
+  </si>
+  <si>
+    <t>MSFBN/000552</t>
+  </si>
+  <si>
+    <t>SDISSURFP20</t>
+  </si>
+  <si>
+    <t>(Surfanios) DOSING PUMP 20 ml, for 5l tin</t>
+  </si>
+  <si>
+    <t>SLASZKE0208</t>
+  </si>
+  <si>
+    <t>FORMIC ACID 85%/V LITRES</t>
+  </si>
+  <si>
+    <t>MSFBN/001625</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>Items still in the field</t>
+  </si>
+  <si>
+    <t>KE153_Homabay</t>
+  </si>
+  <si>
+    <t>OCBA Branch Office</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +317,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -214,6 +331,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -253,45 +378,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,177 +703,562 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1504079</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.253</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43921</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43951</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43920</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10">
+        <v>11.67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43920</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="12">
+        <v>650</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43951</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10">
+        <v>112.47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1.95</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10">
+        <v>16.25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3.1095999999999999</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="12">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="F16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="I16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="12">
+        <v>144</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45015</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="12">
+        <v>260</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5">
+        <v>44104</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2.06</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="12">
+        <v>34</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
-        <v>112</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1504079</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25000</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5">
-        <v>25000</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5">
-        <v>25000</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5">
-        <v>25000</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
+      <c r="F20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/Donations.xlsx
+++ b/public/files/Donations.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
   <si>
     <t>KE150_Mathare</t>
   </si>
@@ -299,6 +299,30 @@
   </si>
   <si>
     <t>OCBA Branch Office</t>
+  </si>
+  <si>
+    <t>Canon toner cartridge 701</t>
+  </si>
+  <si>
+    <t>Canon toner cartridge 301</t>
+  </si>
+  <si>
+    <t>Canon FX 10 cartridge</t>
+  </si>
+  <si>
+    <t>Panasonic UG 3221 toner cartridge</t>
+  </si>
+  <si>
+    <t>HP LaserJet Q2613A</t>
+  </si>
+  <si>
+    <t>HP laserjet Q7553A</t>
+  </si>
+  <si>
+    <t>Canon drum cartridge 701</t>
+  </si>
+  <si>
+    <t>KSU</t>
   </si>
 </sst>
 </file>
@@ -682,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1285,139 @@
         <v>63</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="12">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="12">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="12">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="12">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="12">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
